--- a/Fonctionalités Trello.xlsx
+++ b/Fonctionalités Trello.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redwo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7624695b9c6b502a/Scrum-o-Wall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB8761E-D25A-4083-84B0-6B2C38CAB824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{DCB8761E-D25A-4083-84B0-6B2C38CAB824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E37C1076-0646-482B-B093-1B6890C5C55D}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$D$26</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
   <si>
     <t>Des colonnes (tableau)</t>
   </si>
@@ -31,54 +34,18 @@
     <t>Des cartes avec nom et description</t>
   </si>
   <si>
-    <t xml:space="preserve">  étiquette (mot clé)</t>
-  </si>
-  <si>
     <t>Faible</t>
   </si>
   <si>
-    <t xml:space="preserve">  checklist (Liste de checklist)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  date limite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  image de couverture</t>
-  </si>
-  <si>
     <t>Nul</t>
   </si>
   <si>
     <t>Purement cosmétique</t>
   </si>
   <si>
-    <t xml:space="preserve">  historique de l'activité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  oui ou non un point bloquant</t>
-  </si>
-  <si>
     <t>Moyen</t>
   </si>
   <si>
-    <t xml:space="preserve">  priorité (haute, moyenne)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  type (bug ou task)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  tracking de l'estimation (estimation et deja completé)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  stickers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  piece jointe (lien)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  discussion</t>
-  </si>
-  <si>
     <t>equipe composé de membre et avec des tableaux assignés</t>
   </si>
   <si>
@@ -95,19 +62,103 @@
   </si>
   <si>
     <t>En local</t>
+  </si>
+  <si>
+    <t>addons permettant de rajouter des fonctionalités utiles (Dropbox,GoogleDrive,Jira,Carte,Calendrier, etc…)</t>
+  </si>
+  <si>
+    <t>Visibilité du projet (Privé, public)</t>
+  </si>
+  <si>
+    <t>Raison</t>
+  </si>
+  <si>
+    <t>Fonctionalités</t>
+  </si>
+  <si>
+    <t>Intérêt</t>
+  </si>
+  <si>
+    <t>Intégré</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>C-étiquette (mot clé)</t>
+  </si>
+  <si>
+    <t>C checklist (Liste de checklist) avec attribution, etc…</t>
+  </si>
+  <si>
+    <t>C  date limite (coloration jaune si moins d'1 jour restant, coloration rouge si déjà passé)</t>
+  </si>
+  <si>
+    <t>C  image de couverture</t>
+  </si>
+  <si>
+    <t>C  oui ou non un point bloquant</t>
+  </si>
+  <si>
+    <t>C  historique de l'activité</t>
+  </si>
+  <si>
+    <t>C  priorité (haute, moyenne)</t>
+  </si>
+  <si>
+    <t>C  type (bug ou task)</t>
+  </si>
+  <si>
+    <t>C  stickers</t>
+  </si>
+  <si>
+    <t>C  tracking de l'estimation (estimation et deja completé)</t>
+  </si>
+  <si>
+    <t>C  piece jointe (lien)</t>
+  </si>
+  <si>
+    <t>C  commentaires sur une tache</t>
+  </si>
+  <si>
+    <t>C  discussion</t>
+  </si>
+  <si>
+    <t>T  Position des colonnes défini</t>
+  </si>
+  <si>
+    <t>C attribution des cartes -&gt; Membre par carte</t>
+  </si>
+  <si>
+    <t>Fonctionalités illimités</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -133,9 +184,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -353,200 +407,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="102.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D26" xr:uid="{451D015D-C0E0-4362-B1E7-44865EB00054}">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="Faible"/>
+        <filter val="Haut"/>
+        <filter val="Moyen"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
+      <sortCondition descending="1" ref="B1:B26"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Fonctionalités Trello.xlsx
+++ b/Fonctionalités Trello.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7624695b9c6b502a/Scrum-o-Wall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{DCB8761E-D25A-4083-84B0-6B2C38CAB824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E37C1076-0646-482B-B093-1B6890C5C55D}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{DCB8761E-D25A-4083-84B0-6B2C38CAB824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C99E2E28-7B48-4DE1-98F6-96BE9FB3E847}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
   <si>
     <t>Des colonnes (tableau)</t>
   </si>
@@ -407,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -438,7 +438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -452,7 +452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -466,7 +466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -480,7 +480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -494,7 +494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -508,7 +508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -522,7 +522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -536,7 +536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -552,13 +552,13 @@
     </row>
     <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
@@ -566,13 +566,13 @@
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>37</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -664,13 +664,13 @@
     </row>
     <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>37</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -720,24 +720,27 @@
     </row>
     <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>37</v>
@@ -745,7 +748,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
@@ -756,25 +759,18 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D26" xr:uid="{451D015D-C0E0-4362-B1E7-44865EB00054}">
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="Faible"/>
-        <filter val="Haut"/>
-        <filter val="Moyen"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
       <sortCondition descending="1" ref="B1:B26"/>
     </sortState>
   </autoFilter>

--- a/Fonctionalités Trello.xlsx
+++ b/Fonctionalités Trello.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7624695b9c6b502a/Scrum-o-Wall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{DCB8761E-D25A-4083-84B0-6B2C38CAB824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C99E2E28-7B48-4DE1-98F6-96BE9FB3E847}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{DCB8761E-D25A-4083-84B0-6B2C38CAB824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87699293-CB27-4D10-A7C9-B950BAAE7C23}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -547,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>37</v>
@@ -600,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>37</v>
@@ -642,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>37</v>
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -762,7 +762,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>

--- a/Fonctionalités Trello.xlsx
+++ b/Fonctionalités Trello.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7624695b9c6b502a/Scrum-o-Wall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{DCB8761E-D25A-4083-84B0-6B2C38CAB824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87699293-CB27-4D10-A7C9-B950BAAE7C23}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{DCB8761E-D25A-4083-84B0-6B2C38CAB824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5D14866-893C-4102-B311-8AE03BAE231E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12555" yWindow="2865" windowWidth="18975" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -164,15 +164,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,16 +186,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -413,358 +437,358 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="102.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="102.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2"/>
+    <col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
